--- a/Hoàng/2025/CÔNG TY TNHH TƯ VẤN GIÁO DỤC VÀ DỊCH THUẬT TÀI MINH/CÔNG TY TNHH TƯ VẤN GIÁO DỤC VÀ DỊCH THUẬT TÀI MINH T4-2025 BS Long đã duyệt.xlsx
+++ b/Hoàng/2025/CÔNG TY TNHH TƯ VẤN GIÁO DỤC VÀ DỊCH THUẬT TÀI MINH/CÔNG TY TNHH TƯ VẤN GIÁO DỤC VÀ DỊCH THUẬT TÀI MINH T4-2025 BS Long đã duyệt.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\CÔNG TY TNHH TƯ VẤN GIÁO DỤC VÀ DỊCH THUẬT TÀI MINH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6025B2A-B166-4B6C-AA22-30FDFAFB6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="KQCN" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$9:$V$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KQCN!$A$2:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$9:$W$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$T$28</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="202">
   <si>
     <t>CÔNG TY CỔ PHẦN BỆNH VIỆN THIỆN NHÂN ĐÀ NẴNG</t>
   </si>
@@ -140,9 +150,6 @@
   </si>
   <si>
     <t>Đinh Thị Huyền Trang</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
     <t>Lê Nữ Thuỷ Ngọc</t>
@@ -765,11 +772,17 @@
   <si>
     <t xml:space="preserve">Không XL </t>
   </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Stt HT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -778,14 +791,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1048,7 +1061,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,9 +1098,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,9 +1110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1129,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,51 +1186,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 2 33" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 3 3" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 33" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1218,13 +1251,142 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4294</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>422275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E26947-9D10-43E2-8A42-CEEE69B410EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17938750" y="73959"/>
+          <a:ext cx="4294" cy="898525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B78C30-2B96-4D67-8C62-1A12E8AC7A73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21802725" y="0"/>
+          <a:ext cx="7257" cy="606425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>4294</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>7284</xdr:rowOff>
@@ -1234,7 +1396,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{793FDB8B-A127-4530-A834-300DB4845A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793FDB8B-A127-4530-A834-300DB4845A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,14 +1454,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>4082</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1308,7 +1470,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,23 +1504,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289984</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,8 +1542,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247651" y="0"/>
-          <a:ext cx="1381124" cy="1381124"/>
+          <a:off x="1094317" y="31750"/>
+          <a:ext cx="1720849" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1436,7 +1598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1469,9 +1631,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1504,6 +1683,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1679,1424 +1875,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB0595B-90B0-40D1-A2D9-8A908B2051CB}">
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" style="12" customWidth="1"/>
     <col min="3" max="4" width="7" style="11" customWidth="1"/>
-    <col min="5" max="9" width="8.7109375" style="11" customWidth="1"/>
-    <col min="10" max="16" width="13.7109375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="50.7109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="43" style="14" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="12" style="7" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="24"/>
+    <col min="5" max="5" width="50.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="43" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.4140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" ht="37.5" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+    </row>
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="82.5">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1976</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" s="17" customFormat="1" ht="115.5">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1996</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" s="17" customFormat="1" ht="99">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1980</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" s="17" customFormat="1" ht="99">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1997</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" s="17" customFormat="1" ht="82.5">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" s="28" customFormat="1" ht="115.5">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1997</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="17" customFormat="1" ht="99">
+      <c r="A8" s="24">
+        <v>8</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1986</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" s="17" customFormat="1" ht="82.5">
+      <c r="A9" s="24">
+        <v>9</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1997</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" s="17" customFormat="1" ht="99">
+      <c r="A10" s="24">
+        <v>10</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1997</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" s="17" customFormat="1" ht="132">
+      <c r="A11" s="24">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1999</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" s="17" customFormat="1" ht="99">
+      <c r="A12" s="24">
+        <v>12</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1997</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" s="17" customFormat="1" ht="115.5">
+      <c r="A13" s="24">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1994</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" s="17" customFormat="1" ht="99">
+      <c r="A14" s="24">
+        <v>14</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" s="17" customFormat="1" ht="82.5">
+      <c r="A15" s="24">
+        <v>15</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1997</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" s="17" customFormat="1" ht="115.5">
+      <c r="A16" s="24">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1995</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.5">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="14">
+      <c r="A23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="14">
+      <c r="A24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="14">
+      <c r="A25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="14">
+      <c r="A28"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W38"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="5.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="7" style="11" customWidth="1"/>
+    <col min="6" max="10" width="8.75" style="11" customWidth="1"/>
+    <col min="11" max="17" width="13.75" style="11" customWidth="1"/>
+    <col min="18" max="18" width="50.75" style="13" customWidth="1"/>
+    <col min="19" max="19" width="43" style="14" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12" style="7" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="19">
+      <c r="A1"/>
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" ht="19.5">
-      <c r="A2" s="34" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="19">
+      <c r="A2"/>
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="19.5">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="19">
+      <c r="A3"/>
+      <c r="B3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="19.5">
-      <c r="A4" s="34" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="19">
+      <c r="A4"/>
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="19.5">
-      <c r="A5" s="35" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="19">
+      <c r="A5"/>
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="19.5">
-      <c r="A6" s="33" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="19">
+      <c r="A6"/>
+      <c r="B6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="4"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" ht="20.25">
-      <c r="A7" s="38" t="s">
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="19">
+      <c r="A7"/>
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="5"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
       <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A8" s="39" t="s">
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A8" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="45" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="41"/>
+    </row>
+    <row r="10" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1976</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="23"/>
+    </row>
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="132">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1996</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="23"/>
+    </row>
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="115.5">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1980</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" s="23"/>
+    </row>
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1997</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" s="23"/>
+    </row>
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="1:23" s="28" customFormat="1" ht="132">
+      <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="45" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="32"/>
-    </row>
-    <row r="10" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A10" s="26">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1976</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1997</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="F15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10" s="25"/>
-    </row>
-    <row r="11" spans="1:22" s="17" customFormat="1" ht="132">
-      <c r="A11" s="26">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20">
-        <v>1996</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="1:22" s="17" customFormat="1" ht="132">
-      <c r="A12" s="26">
-        <v>3</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1980</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="8" t="s">
+      <c r="O15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A13" s="26">
-        <v>4</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1997</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="8" t="s">
+      <c r="U15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" s="25"/>
-    </row>
-    <row r="14" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A14" s="26">
-        <v>5</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="20">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="25"/>
-    </row>
-    <row r="15" spans="1:22" s="30" customFormat="1" ht="148.5">
-      <c r="A15" s="26">
-        <v>6</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="28">
-        <v>1997</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="R15" s="8" t="s">
+      <c r="V15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" s="29"/>
-    </row>
-    <row r="16" spans="1:22" s="17" customFormat="1" ht="16.5">
+      <c r="W15" s="27"/>
+    </row>
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="99">
       <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="9">
+        <v>8</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20">
-        <v>2002</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="8" t="s">
-        <v>197</v>
+      <c r="D16" s="19">
+        <v>1986</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="25"/>
-    </row>
-    <row r="17" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A17" s="26">
+        <v>119</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" s="23"/>
+    </row>
+    <row r="17" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="9">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="20">
-        <v>1986</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>114</v>
+      <c r="D17" s="19">
+        <v>1997</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="9">
+        <v>10</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1997</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="1:23" s="17" customFormat="1" ht="132">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9">
+        <v>11</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1999</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="V17" s="25"/>
-    </row>
-    <row r="18" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A18" s="26">
-        <v>9</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="K19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9">
+        <v>12</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="19">
         <v>1997</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="E20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="W20" s="23"/>
+    </row>
+    <row r="21" spans="1:23" s="17" customFormat="1" ht="132">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9">
+        <v>13</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1994</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="9" t="s">
+      <c r="N21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="W21" s="23"/>
+    </row>
+    <row r="22" spans="1:23" s="17" customFormat="1" ht="99">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9">
+        <v>14</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="1:23" s="17" customFormat="1" ht="115.5">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="9">
+        <v>15</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1997</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="W23" s="23"/>
+    </row>
+    <row r="24" spans="1:23" s="17" customFormat="1" ht="132">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9">
+        <v>16</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1995</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="V18" s="25"/>
-    </row>
-    <row r="19" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A19" s="26">
-        <v>10</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="20">
-        <v>1997</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="V19" s="25"/>
-    </row>
-    <row r="20" spans="1:22" s="17" customFormat="1" ht="132">
-      <c r="A20" s="26">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="20">
-        <v>1999</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G24" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="V20" s="25"/>
-    </row>
-    <row r="21" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A21" s="26">
-        <v>12</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="20">
-        <v>1997</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="V21" s="25"/>
-    </row>
-    <row r="22" spans="1:22" s="17" customFormat="1" ht="132">
-      <c r="A22" s="26">
-        <v>13</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="20">
-        <v>1994</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="V22" s="25"/>
-    </row>
-    <row r="23" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A23" s="26">
-        <v>14</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="20">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="V23" s="25"/>
-    </row>
-    <row r="24" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A24" s="26">
-        <v>15</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="20">
-        <v>1997</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="M24" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>182</v>
+        <v>54</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>61</v>
+        <v>192</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="V24" s="25"/>
-    </row>
-    <row r="25" spans="1:22" s="17" customFormat="1" ht="132">
-      <c r="A25" s="26">
-        <v>16</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="20">
-        <v>1995</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="R25" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T25" s="9" t="s">
+      <c r="V24" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="U25" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="V25" s="25"/>
-    </row>
-    <row r="26" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23">
-        <f>COUNTA(B10:B25)</f>
-        <v>16</v>
-      </c>
-      <c r="C26" s="23">
-        <f t="shared" ref="C26:U26" si="0">COUNTA(C10:C25)</f>
-        <v>16</v>
-      </c>
-      <c r="D26" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q26" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R26" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="U26" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="V26" s="25"/>
-    </row>
-    <row r="27" spans="1:22" ht="19.5">
-      <c r="M27" s="42" t="s">
+      <c r="W24" s="23"/>
+    </row>
+    <row r="25" spans="1:23" s="17" customFormat="1" ht="16.5">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="23"/>
+    </row>
+    <row r="26" spans="1:23" s="17" customFormat="1" ht="16.5">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="23"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="N27" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="10"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
       <c r="U27" s="10"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="16"/>
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -3104,40 +3763,41 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="10"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
       <c r="U28" s="10"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="T29" s="10"/>
+      <c r="V28" s="10"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="U29" s="10"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="T30" s="10"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="U30" s="10"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="T31" s="10"/>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="U31" s="10"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="T32" s="10"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="U32" s="10"/>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33"/>
+      <c r="B33"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
@@ -3152,15 +3812,16 @@
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33" s="10"/>
+      <c r="T33"/>
       <c r="U33" s="10"/>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34"/>
+      <c r="B34"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
@@ -3175,15 +3836,16 @@
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
-      <c r="T34" s="10"/>
+      <c r="T34"/>
       <c r="U34" s="10"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35"/>
+      <c r="B35"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
@@ -3198,15 +3860,16 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-      <c r="T35" s="10"/>
+      <c r="T35"/>
       <c r="U35" s="10"/>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V35" s="10"/>
+    </row>
+    <row r="38" spans="1:22" ht="17.5">
       <c r="A38"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38"/>
+      <c r="B38"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
@@ -3221,49 +3884,51 @@
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38" s="15"/>
+      <c r="T38"/>
       <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E8:I8"/>
+  <mergeCells count="22">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F8:J8"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B25">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C10:C26">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0.17" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
